--- a/storage/public/import/import.xlsx
+++ b/storage/public/import/import.xlsx
@@ -1,81 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerapongnimnon/Desktop/mea imort/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nat\Desktop\MEA Fund BackUp 15032016\Data Migration\5.Saving Rate Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="51.4" sheetId="1" r:id="rId1"/>
+    <sheet name="51-7" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>EMP_ID</t>
   </si>
   <si>
-    <t>FULL_NAME</t>
+    <t>USER_SAVING_RATE</t>
   </si>
   <si>
-    <t>FILE_NO</t>
+    <t>CHANGE_SAVING_RATE_DATE</t>
   </si>
   <si>
-    <t>FILE_PATH</t>
+    <t>EFFECTIVE_DATE</t>
   </si>
   <si>
-    <t>CREATE_DATE</t>
+    <t>MODIFY_COUNT</t>
   </si>
   <si>
-    <t>CREATE_BY</t>
+    <t>MODIFY_BY</t>
   </si>
   <si>
-    <t>FILE_NAME</t>
+    <t>'2016-01-13 00:00:00'</t>
   </si>
   <si>
-    <t>ปัญญา ปิยะจันทร์วิจิตต์</t>
+    <t>'2016-01-01 00:00:00'</t>
   </si>
   <si>
-    <t>http://measvp.mea.or.th:8081/1145713.pdf</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>1145713.pdf</t>
-  </si>
-  <si>
-    <t>เทอดศักดิ์ นิ่มเสน่ห์</t>
-  </si>
-  <si>
-    <t>http://measvp.mea.or.th:8081/1154614.pdf</t>
-  </si>
-  <si>
-    <t>1154614.pdf</t>
+    <t>User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,9 +653,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -711,9 +688,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -893,24 +870,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -929,48 +903,205 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>2534543</v>
-      </c>
-      <c r="B2" t="s">
+        <v>1145713</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>2534542</v>
-      </c>
-      <c r="B3" t="s">
+        <v>1154614</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1159917</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1160008</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1160724</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1161003</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>1162520</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1164704</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1167532</v>
+      </c>
+      <c r="B10">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>1168818</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
